--- a/Python In By/forecast.xlsx
+++ b/Python In By/forecast.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>32-37 °C</t>
+          <t>30-32 °C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-39 °C</t>
+          <t>32-37 °C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17-22 °C</t>
+          <t>15-20 °C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
